--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_6_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1143323.598641039</v>
+        <v>-1116701.01330145</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17501425.40204686</v>
+        <v>16794960.12241026</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10129249.3619582</v>
+        <v>10150330.93728553</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>136.5039750290777</v>
+        <v>275.9476064308155</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>173.8744632580755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>53.15476611806653</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.04801347819101</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>68.94999416853804</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>254.1786282344339</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.7262849506853</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>104.0281384705984</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>149.9492398050827</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>131.3089131981287</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>148.0686074491016</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832984</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1376,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>385.2660857278481</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>162.9282706828479</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735226122</v>
+        <v>103.8284742946071</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015855</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>181.1112426721133</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.57964473925398</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3190,7 +3190,7 @@
         <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
         <v>151.8247133730227</v>
@@ -3205,7 +3205,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432507</v>
+        <v>71.53763939432503</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934423</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3244,13 +3244,13 @@
         <v>259.4129604006783</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095265</v>
+        <v>267.8502427095264</v>
       </c>
       <c r="W34" t="n">
         <v>253.070430030824</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811743</v>
+        <v>226.7021267811742</v>
       </c>
       <c r="Y34" t="n">
         <v>208.9097636402854</v>
@@ -3442,7 +3442,7 @@
         <v>122.2674422277818</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432372</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
         <v>154.6003840628599</v>
@@ -3670,16 +3670,16 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432508</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934472</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
         <v>154.6003840628599</v>
@@ -3907,13 +3907,13 @@
         <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I43" t="n">
         <v>71.53763939432403</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
         <v>154.6003840628599</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
         <v>151.8247133730227</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934451</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>603.3754332121797</v>
+        <v>488.3093955600841</v>
       </c>
       <c r="C2" t="n">
-        <v>465.4926301525052</v>
+        <v>209.5744395693614</v>
       </c>
       <c r="D2" t="n">
-        <v>465.4926301525052</v>
+        <v>209.5744395693614</v>
       </c>
       <c r="E2" t="n">
-        <v>435.7582893512044</v>
+        <v>209.5744395693614</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>209.5744395693614</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.961127397434</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1437.961127397434</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>1029.675003697088</v>
+        <v>510.5685620045878</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="E4" t="n">
         <v>604.8041211489747</v>
@@ -4486,10 +4486,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
         <v>437.4083829648294</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1388.81010065622</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>1388.81010065622</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="X4" t="n">
-        <v>1143.418345989632</v>
+        <v>832.2237918348665</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.258736415702</v>
+        <v>604.8041211489747</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1395.53913136414</v>
+        <v>1265.143870526844</v>
       </c>
       <c r="C5" t="n">
-        <v>1361.437062587967</v>
+        <v>827.0013977102669</v>
       </c>
       <c r="D5" t="n">
-        <v>932.8553883252357</v>
+        <v>795.1320169251155</v>
       </c>
       <c r="E5" t="n">
-        <v>863.2089295691367</v>
+        <v>765.3976761238148</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>741.5706505734266</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>340.1728191966905</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>51.0426646399068</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.8805627199647</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1112.375769149669</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210985</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599283</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2447.641889536177</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2227.574662409216</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1968.352359726233</v>
       </c>
       <c r="V5" t="n">
-        <v>1437.961127397434</v>
+        <v>1711.606270600542</v>
       </c>
       <c r="W5" t="n">
-        <v>1437.146076848872</v>
+        <v>1710.791220051979</v>
       </c>
       <c r="X5" t="n">
-        <v>1422.044017468586</v>
+        <v>1695.689160671694</v>
       </c>
       <c r="Y5" t="n">
-        <v>1417.798297808644</v>
+        <v>1691.443441011751</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583396</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949819</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415352</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684889</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846505</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083433</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.68954842750441</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.2478733937167</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1027.743079823421</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.587300558882</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381028</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>1129.684035878928</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>957.1223243621531</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>791.2443315636758</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>621.4863278144131</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>444.7792737761693</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>279.187998801997</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.2858244923715</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.62587526704681</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.3843298381824</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.5942116061434</v>
       </c>
       <c r="M7" t="n">
-        <v>1181.483761245743</v>
+        <v>1203.078078787056</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>1645.336881944701</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2065.006131170482</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.513025140824</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.29376335234</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.875942057712</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2509.875942057712</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2263.996495636167</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1985.563494889273</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1698.607986759703</v>
       </c>
       <c r="W7" t="n">
-        <v>741.6032097962661</v>
+        <v>1426.581582345995</v>
       </c>
       <c r="X7" t="n">
-        <v>496.2114551296786</v>
+        <v>1426.581582345995</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.7917844437869</v>
+        <v>1321.502654597915</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.427859754807</v>
+        <v>1114.066895752005</v>
       </c>
       <c r="C8" t="n">
-        <v>1333.963981163815</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.094600378663</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E8" t="n">
-        <v>868.3198555369585</v>
+        <v>210.2802973085725</v>
       </c>
       <c r="F8" t="n">
-        <v>440.4524259461662</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="G8" t="n">
-        <v>39.05459456943011</v>
+        <v>186.4532717581843</v>
       </c>
       <c r="H8" t="n">
-        <v>39.05459456943011</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>38.63780519657011</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>473.892492649488</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>806.4505164603387</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>806.4505164603387</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>806.4505164603387</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>806.4505164603387</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>806.4505164603387</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1284.593355767894</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1762.736195075449</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1931.890259828506</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1931.890259828506</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1931.890259828506</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1931.890259828506</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1931.890259828506</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1527.034805239539</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>1511.932745859254</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>1507.687026199311</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>544.8095501878629</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>438.3530890245052</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>343.2628001710585</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>249.1423854980122</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>165.7585471141738</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>80.37345738035765</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>38.63780519657011</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>64.70147835702771</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>389.25980332324</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>867.4026426307952</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1106.561949273485</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1106.561949273485</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1106.561949273485</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1106.561949273485</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1106.561949273485</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1584.70478858104</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1701.877566675379</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1638.422129123762</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1508.243485454364</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1331.906938454332</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1132.789420516331</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>947.4666662495254</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>792.5992304884053</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>666.113451267626</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1117.695965808452</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>945.1342542916765</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>779.2562614931992</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>609.4982577439364</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>432.7912037056926</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>267.1999287315202</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>127.2977544218948</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>38.63780519657011</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>125.21749036126</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>399.9759449323956</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>399.9759449323956</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>859.4598121133087</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1301.718615270953</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1416.190590993832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1763.697484964173</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1931.890259828506</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1931.890259828506</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1931.890259828506</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1931.890259828506</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1931.890259828506</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1931.890259828506</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W10" t="n">
-        <v>1782.326009879918</v>
+        <v>1693.062784852649</v>
       </c>
       <c r="X10" t="n">
-        <v>1536.934255213331</v>
+        <v>1447.671030186061</v>
       </c>
       <c r="Y10" t="n">
-        <v>1309.514584527439</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1628.495719159431</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1190.353246342854</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>754.4434615172986</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>754.4434615172986</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>365.2857991659369</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2857991659369</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.1556446091531</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.1556446091531</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>76.1556446091531</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>76.1556446091531</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1018.581746647423</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1961.007848685692</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2903.433950723962</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.628165704598</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3638.628165704598</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3638.628165704598</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3807.782230457655</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3724.130356641492</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3504.063129514531</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3244.840826831548</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2882.223876765374</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2882.223876765374</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>2463.081413344685</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2054.795289644338</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3273896004459</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.8709284370882</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7806395836415</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6602249105952</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2763865267568</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8912967929406</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.1556446091531</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>76.1556446091531</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J12" t="n">
-        <v>76.1556446091531</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K12" t="n">
-        <v>76.1556446091531</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>76.1556446091531</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>76.1556446091531</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>76.1556446091531</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>261.7605228823485</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.483689361547</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.222627993622</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.395406087962</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.939968536345</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.761324866947</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.424777866915</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.307259928914</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9845056621084</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.1170699009883</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6312906802091</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.6516816860844</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C13" t="n">
-        <v>754.0899701693094</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D13" t="n">
-        <v>588.2119773708321</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E13" t="n">
-        <v>418.4539736215693</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7469195833255</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>76.1556446091531</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.1556446091531</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.1556446091531</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7353297738429</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4937843449785</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.7036661129396</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.187533293853</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.446336451497</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.115585677279</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.622479647621</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.815254511953</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.815254511953</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2674.576085469268</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2428.696639047724</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2150.263638300829</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1863.308130171259</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1591.281725757551</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.889971090963</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1118.470300405072</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835212</v>
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.996046390399</v>
+        <v>1057.63412410994</v>
       </c>
       <c r="C16" t="n">
-        <v>798.4343348736239</v>
+        <v>885.0724125931653</v>
       </c>
       <c r="D16" t="n">
-        <v>632.5563420751466</v>
+        <v>719.194419794688</v>
       </c>
       <c r="E16" t="n">
-        <v>462.7983383258839</v>
+        <v>549.4364160454252</v>
       </c>
       <c r="F16" t="n">
-        <v>286.0912842876401</v>
+        <v>372.7293620071814</v>
       </c>
       <c r="G16" t="n">
-        <v>120.5000093134677</v>
+        <v>207.1380870330091</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5449,10 +5449,10 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
         <v>2718.920450173583</v>
@@ -5461,25 +5461,25 @@
         <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173583</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752038</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005143</v>
+        <v>2281.246080724685</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.652494875574</v>
+        <v>1994.290572595115</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461865</v>
+        <v>1722.264168181407</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795278</v>
+        <v>1476.872413514819</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109386</v>
+        <v>1249.452742828928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5555,10 +5555,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,10 +5589,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5947,13 +5947,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6169,7 +6169,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S25" t="n">
         <v>2700.681281130895</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,13 +6470,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2425.390877206711</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>755.2952747835853</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>370.2971508197254</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>97.56670367581786</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>540.31673232073</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1615.376698573589</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2772.42453378414</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3898.155517220587</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4878.335183790893</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4878.335183790893</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4878.335183790893</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4018.375659750117</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1102.894748428211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1102.894748428211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1102.894748428211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1102.894748428211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1102.894748428211</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1061.826912397567</v>
+        <v>1066.521048992529</v>
       </c>
       <c r="C34" t="n">
-        <v>905.6649082936683</v>
+        <v>910.3590448886298</v>
       </c>
       <c r="D34" t="n">
-        <v>756.1866229080672</v>
+        <v>760.8807595030287</v>
       </c>
       <c r="E34" t="n">
-        <v>602.8283265716806</v>
+        <v>607.5224631666422</v>
       </c>
       <c r="F34" t="n">
-        <v>442.520979946313</v>
+        <v>447.2151165412746</v>
       </c>
       <c r="G34" t="n">
-        <v>293.3294123850168</v>
+        <v>298.0235489799784</v>
       </c>
       <c r="H34" t="n">
-        <v>169.8269454882674</v>
+        <v>174.5210820832291</v>
       </c>
       <c r="I34" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>200.2197420758676</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>491.0515498823631</v>
+        <v>495.745686477325</v>
       </c>
       <c r="L34" t="n">
-        <v>925.334784885684</v>
+        <v>930.028921480646</v>
       </c>
       <c r="M34" t="n">
-        <v>1400.892005301957</v>
+        <v>1405.586141896919</v>
       </c>
       <c r="N34" t="n">
-        <v>1859.224161694961</v>
+        <v>1863.918298289924</v>
       </c>
       <c r="O34" t="n">
-        <v>2294.966764156103</v>
+        <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2658.547011361805</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
-        <v>2842.813139461497</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2837.795025579745</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2694.953364290618</v>
+        <v>2699.64750088558</v>
       </c>
       <c r="T34" t="n">
-        <v>2465.473625281949</v>
+        <v>2470.167761876911</v>
       </c>
       <c r="U34" t="n">
-        <v>2203.440331947931</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1932.884531231237</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W34" t="n">
-        <v>1677.257834230405</v>
+        <v>1681.951970825367</v>
       </c>
       <c r="X34" t="n">
-        <v>1448.265786976694</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1237.245823703678</v>
+        <v>1241.93996029864</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.390877206712</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803011</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390332</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961503</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835866</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197257</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J35" t="n">
         <v>532.8213911287357</v>
@@ -6941,46 +6941,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L35" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="M35" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="N35" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675538</v>
       </c>
       <c r="O35" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P35" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.68233307924</v>
       </c>
       <c r="Q35" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037835</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673522</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403415</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574027</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566214</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7008,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K36" t="n">
         <v>1102.894748428211</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936682</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080658</v>
+        <v>756.186622908067</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716792</v>
+        <v>602.8283265716802</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463125</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850154</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882661</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J37" t="n">
         <v>200.2197420758676</v>
@@ -7111,34 +7111,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976694</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835857</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197261</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207291</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573589</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784139</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220586</v>
+        <v>2523.346856428594</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790892</v>
+        <v>3503.526522998901</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4331.836397832297</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387605</v>
@@ -7245,13 +7245,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
         <v>1102.894748428211</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936683</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080672</v>
+        <v>756.1866229080654</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716806</v>
+        <v>602.8283265716789</v>
       </c>
       <c r="F40" t="n">
-        <v>442.520979946313</v>
+        <v>442.5209799463112</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850168</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882674</v>
+        <v>169.8269454882661</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,34 +7348,34 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230403</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976694</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2003.648111803009</v>
       </c>
       <c r="D41" t="n">
         <v>1584.13803439033</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835856</v>
+        <v>755.2952747835848</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>370.2971508197248</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581717</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
       </c>
       <c r="K41" t="n">
-        <v>1228.461808239092</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239092</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675539</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387605</v>
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7546,34 +7546,34 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936673</v>
       </c>
       <c r="D43" t="n">
         <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463119</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850157</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823632</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856841</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7591,7 +7591,7 @@
         <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
@@ -7603,7 +7603,7 @@
         <v>2203.44033194793</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W43" t="n">
         <v>1677.257834230404</v>
@@ -7631,19 +7631,19 @@
         <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7658,28 +7658,28 @@
         <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2900.691577634135</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3880.871244204441</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4709.181119037837</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397567</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
         <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080663</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716797</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,19 +7828,19 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
@@ -8134,13 +8134,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102588</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.823440838085</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.4957981777975</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>119.980543647996</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>335.9171957685361</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>482.9725649571265</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>482.9725649571265</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9725649571264</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>241.5750572148378</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>482.9725649571265</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,7 +8614,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8623,7 +8623,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>115.6282583059378</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>951.9455576144138</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>951.9455576144139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>951.9455576144137</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>742.62041917236</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,19 +9398,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,16 +10118,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,7 +10589,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11060,16 +11060,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>463.0908366609715</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,10 +11315,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100.4436685772729</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>223.5093898048933</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23264,19 +23264,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>38.3226695670362</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,10 +23315,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7.907823718759431</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.446375214268</v>
+        <v>34.67467827192208</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-5.621812378548876e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>88.19489769745812</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.037392394209746e-12</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>819800.7911547479</v>
+        <v>663556.9190888639</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>867821.2254022403</v>
+        <v>880652.369935033</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>871431.7276765833</v>
+        <v>882787.0278714411</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725591.2428557861</v>
+        <v>897262.4944911568</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>897262.4944911564</v>
+        <v>897262.4944911563</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908887.4924273347</v>
+        <v>911661.5849083936</v>
       </c>
     </row>
     <row r="13">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101033.2789138892</v>
+        <v>80872.77929248475</v>
       </c>
       <c r="C2" t="n">
         <v>107229.4639780817</v>
@@ -26320,7 +26320,7 @@
         <v>107229.4639780817</v>
       </c>
       <c r="E2" t="n">
-        <v>85211.01720606608</v>
+        <v>105371.5168274705</v>
       </c>
       <c r="F2" t="n">
         <v>105371.5168274705</v>
@@ -26341,7 +26341,7 @@
         <v>105371.5168274705</v>
       </c>
       <c r="L2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780818</v>
       </c>
       <c r="M2" t="n">
         <v>107229.4639780817</v>
@@ -26350,7 +26350,7 @@
         <v>107229.4639780817</v>
       </c>
       <c r="O2" t="n">
-        <v>107229.4639780817</v>
+        <v>107229.4639780816</v>
       </c>
       <c r="P2" t="n">
         <v>107229.4639780817</v>
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.1493924622</v>
       </c>
       <c r="D3" t="n">
-        <v>18226.74563116216</v>
+        <v>10776.30320106424</v>
       </c>
       <c r="E3" t="n">
-        <v>140025.0182016276</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>93497.71615179001</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338206</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>21768.74196143524</v>
       </c>
       <c r="M3" t="n">
-        <v>116869.9456621666</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>79923.34072268993</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188278.0806980246</v>
+        <v>130743.3336435126</v>
       </c>
       <c r="C4" t="n">
-        <v>205960.9728418668</v>
+        <v>171068.0601277516</v>
       </c>
       <c r="D4" t="n">
-        <v>196142.6015819379</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="E4" t="n">
-        <v>65857.9181038619</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="F4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904281</v>
       </c>
       <c r="H4" t="n">
         <v>81439.57146904283</v>
@@ -26445,19 +26445,19 @@
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
-        <v>94325.77438500369</v>
+        <v>86781.9292856761</v>
       </c>
       <c r="M4" t="n">
-        <v>94325.77438500369</v>
+        <v>94325.77438500366</v>
       </c>
       <c r="N4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="O4" t="n">
-        <v>94325.77438500368</v>
+        <v>94325.77438500365</v>
       </c>
       <c r="P4" t="n">
-        <v>94325.77438500369</v>
+        <v>94325.77438500365</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295558</v>
       </c>
       <c r="D5" t="n">
-        <v>62992.33194939328</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57878.28990295636</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>75515.61472608973</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-288860.8905810677</v>
+        <v>-251816.10170653</v>
       </c>
       <c r="C6" t="n">
-        <v>-158156.2970010074</v>
+        <v>-203311.0107450876</v>
       </c>
       <c r="D6" t="n">
-        <v>-170132.2151844116</v>
+        <v>-143022.4520442987</v>
       </c>
       <c r="E6" t="n">
-        <v>-178550.2090023797</v>
+        <v>-236164.6268077973</v>
       </c>
       <c r="F6" t="n">
-        <v>-147284.0093991549</v>
+        <v>-53809.5175867475</v>
       </c>
       <c r="G6" t="n">
-        <v>-53786.29324736488</v>
+        <v>-53809.51758674747</v>
       </c>
       <c r="H6" t="n">
-        <v>-53786.29324736488</v>
+        <v>-53809.51758674754</v>
       </c>
       <c r="I6" t="n">
-        <v>-53786.29324736487</v>
+        <v>-53809.51758674751</v>
       </c>
       <c r="J6" t="n">
-        <v>-164800.7585923551</v>
+        <v>-164823.9829317377</v>
       </c>
       <c r="K6" t="n">
-        <v>-53786.29324736487</v>
+        <v>-107477.8446501296</v>
       </c>
       <c r="L6" t="n">
-        <v>-75600.49340400967</v>
+        <v>-80404.36580729026</v>
       </c>
       <c r="M6" t="n">
-        <v>-179481.8707951783</v>
+        <v>-200189.6258708636</v>
       </c>
       <c r="N6" t="n">
-        <v>-142535.2658557017</v>
+        <v>-62611.92513301162</v>
       </c>
       <c r="O6" t="n">
-        <v>-62611.92513301174</v>
+        <v>-62611.92513301171</v>
       </c>
       <c r="P6" t="n">
-        <v>-62611.92513301174</v>
+        <v>-62611.92513301162</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M2" t="n">
         <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.823440838085</v>
       </c>
       <c r="D4" t="n">
-        <v>482.9725649571264</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.9455576144138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26817,7 +26817,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="L4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
         <v>1219.583795947723</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179807</v>
       </c>
       <c r="D4" t="n">
-        <v>58.67670743702206</v>
+        <v>34.69176576977188</v>
       </c>
       <c r="E4" t="n">
-        <v>468.9729926572874</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>326.3149457703315</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179807</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977188</v>
       </c>
       <c r="M4" t="n">
-        <v>468.9729926572874</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>326.3149457703313</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179807</v>
       </c>
       <c r="L4" t="n">
-        <v>58.67670743702206</v>
+        <v>34.69176576977188</v>
       </c>
       <c r="M4" t="n">
-        <v>468.9729926572874</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>326.3149457703315</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>196.8134044820603</v>
+        <v>157.8134416575954</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>189.7830710018551</v>
       </c>
       <c r="Y4" t="n">
-        <v>214.0974605008418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>360.4870032247497</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>104.8121523310779</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.17414758111192</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>121.1173355084344</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>283.8118082833282</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>154.9299398130871</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>121.2375329204697</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
     </row>
     <row r="11">
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28521,13 +28521,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.316131754644614e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>16.23571033874738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874741</v>
       </c>
     </row>
     <row r="35">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874736</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874748</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
   </sheetData>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>42.55209558322787</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>632.8234408380852</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>77.54539097102588</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380849</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>632.823440838085</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>28.4957981777975</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>371.7091627680287</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>119.980543647996</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>335.9171957685361</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>482.9725649571265</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>482.9725649571265</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9725649571264</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>241.5750572148378</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,13 +35267,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>482.9725649571265</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094338</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35343,10 +35343,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>115.6282583059378</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>951.9455576144138</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>951.9455576144139</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>951.9455576144137</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>742.62041917236</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,13 +35817,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.891691782158</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>288.735183296506</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36838,16 +36838,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>447.222251156477</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
-        <v>293.7695028348439</v>
+        <v>293.769502834844</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.669934346789</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033062</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343482</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>996.9910187763885</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37321,13 +37321,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>81.93455261497138</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.1274021209006</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>702.667087990259</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37938,25 +37938,25 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>463.0908366609715</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
